--- a/네이버뉴스/001_test.xlsx
+++ b/네이버뉴스/001_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>기사 제목</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>기사 입력시각</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[편집실에서]로봇 찌빠를 보내며</t>
+          <t>23일, 기관 코스닥에서 네오이뮨텍(Reg.S)(+0.49%), 레고켐바이오(-6.87%) 등 순매도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>K쇼핑, 복합리빙쇼핑센터에 첫 팝업스토어 열었다</t>
+          <t>23일, 외국인 코스닥에서 위지윅스튜디오(+2.48%), 카카오게임즈(-1.1%) 등 순매도</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>“더 너른 다양성 지향”…한국지엠 다양성위원회, '다양성 주간' 마련</t>
+          <t>23일, 코스닥 기관 순매수상위에 IT부품 업종 6종목</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[속보] 신규 확진 7175명· 위중증 840명… 역대 최다치 경신</t>
+          <t>23일, 외국인 코스닥에서 엘앤에프(+3.86%), 네오이뮨텍(Reg.S)(+0.49%) 등 순매수</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>독자의 소리 1455호를 읽고</t>
+          <t>23일, 거래소 기관 순매도상위에 서비스업 업종 5종목</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,12 +548,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[렌즈로 본 세상]수심 깊어진 노량진수산시장</t>
+          <t>23일, 거래소 외국인 순매도상위에 전기,전자 업종 4종목</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>한국레노버, 8일 쇼핑라이브로 노트북 할인판매</t>
+          <t>노바백스 2회 접종·AZ 부스터샷, 오미크론에 효과</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>성남지역 SK 5개 관계사, 저소득층 가정에 '행복김치' 전달</t>
+          <t>검찰, ‘불법 브로커 의혹’ 윤우진 전 용산세무서장 구속 기소</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>삼성, 3분기 웨어러블 시장서 14% 성장…애플과 격차 좁혀</t>
+          <t>23일, 기관 거래소에서 삼성전자(+0.63%), LG전자(+5.79%) 등 순매수</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>에쓰오일, 저소득가정 학생·지역사회 후원에 1억원 기부</t>
+          <t>23일, 거래소 외국인 순매수상위에 전기,전자 업종 7종목</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"몇 명 째냐" 與·野 모두 인사 잡음…사과 없이 '사퇴'하면 끝?</t>
+          <t>[우주를 보다] 목성-토성-금성 일렬로…‘8만 년만의 손님’ 레너드 혜성 맞이</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,12 +656,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>카카오엔터, 새 글로벌 비전 공개… “글로벌 거래액, 3년 내 3배로 키울 것”</t>
+          <t>올해 베스트 웹소설은?…문피아, ‘연말 페스타’ 진행</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:37</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -674,12 +674,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BBQ, 기프티콘 사용 고객 앱 서비스 강화</t>
+          <t>트리 명소 찾아 기념촬영하는 시민들</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,12 +692,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>코로나19 감염되면 후각 마비되는 이유 찾았다...연구팀 분석 성공</t>
+          <t>트리 앞 기념촬영하며 지친 마음 달래요</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -710,12 +710,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>中헝다그룹 디폴트에도 “질서 있는 구조조정 기대”</t>
+          <t>서강대-지디넷코리아, 메타버스 인재 양성 '맞손'</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -728,12 +728,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[인사]도로교통공단 2021년 12월 8일</t>
+          <t>'수은 직원' 감사청구한 무보 노조 "해외수주 121억불 무산, 허위주장"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>경북 구미 해평(강정)습지 천연기념물 흑두루미, 재두루미 다 어디갔나</t>
+          <t>'인증샷 찍자' 인파 몰린 타임스퀘어 광장</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,12 +764,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>코로나19 수출위기, 비대면 화상상담회로 해외수출 뚫는다</t>
+          <t>대형트리 휴대전화에 담으며 '연말 즐겨요'</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -782,12 +782,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>다원시스 자회사, 붕소중성자포획 치료 식약처 IND 신청</t>
+          <t>야경 명소엔 인증샷 인파 붐벼</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,18 +800,378 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[특징주] 제주반도체, D램 가격 전망 상향 조정… 6%↑</t>
+          <t>배민 라이더들 "7년째 기본배달료 3000원..인상해야"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>홍남기 "1주택 보유세 경감 방안 내년 3월 발표"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:42</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>포항 "배터리 재활용 중심지 될 것"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:42</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>“한달새 반토막 났어요” 지옥으로 떴다, 진짜 지옥된 ‘이것’</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:42</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Starting to stabilize?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>요양병원·종교시설 등 코로나 확산…광주·전남 88명 확진</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[해피펫툰]난이도 '상' 시바견 키우기 전에 알아봐야 할 것들</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>State anti-corruption watchdog blasted for targeting journalists</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>대법원, "조부모가 손자·손녀 입양 가능"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[단독] 이석기 가석방 결정에도 “전자발찌 안 찬다”</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>이석기, 내일 가석방될 듯…김재연 “사면·복권 아니라니, 실망”</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이재명, 19∼29세에 年 200만원…윤석열, 입시·취업 비리 신고센터 도입</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>부산~울산 전철로 출퇴근…동해선 2단계 다음주 개통</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>여수 폭발사고 이일산업 원·하청 대표 '산업안전보건법 위반' 입건</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>포항시, 코로나 차단 위해 해맞이명소 호미곶 차량 통제</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2030, 이념보다 실용 중시… 정책실종 선거에 거부감 폭발</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>노바백스 오미크론 변이에 면역…청소년의 면역반응 더 높아</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>이낙연 지지자들 "낙연, 사랑해요" 이재명 향해선 "전과 4범"(영상)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>서울시의회 "예산안 반드시 연내 처리…오세훈 협조해야"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>표심 못 읽는 이재명·윤석열…20대 76.4% “후보 변경 가능”</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>군위군 품는 대구 "남부권 관문도시로"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
